--- a/data/trans_dic/P16A97-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Estudios-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,07</t>
+          <t>7,88; 13,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,39; 48,08</t>
+          <t>38,82; 47,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,99; 34,89</t>
+          <t>24,58; 33,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 24,04</t>
+          <t>16,14; 24,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,02; 66,73</t>
+          <t>57,56; 66,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,73; 56,53</t>
+          <t>45,17; 56,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 17,08</t>
+          <t>11,93; 17,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,19; 56,47</t>
+          <t>50,37; 56,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,0; 43,4</t>
+          <t>35,86; 43,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,17</t>
+          <t>1,53; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 11,76</t>
+          <t>8,24; 11,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,12</t>
+          <t>7,6; 10,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,03</t>
+          <t>4,72; 7,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,97; 25,86</t>
+          <t>20,01; 26,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,09</t>
+          <t>16,97; 22,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,84</t>
+          <t>3,14; 4,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 16,86</t>
+          <t>13,63; 16,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 15,43</t>
+          <t>12,34; 15,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,08</t>
+          <t>2,1; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,67</t>
+          <t>5,23; 12,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,74</t>
+          <t>6,35; 13,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,41</t>
+          <t>6,12; 13,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,69; 26,0</t>
+          <t>14,92; 25,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,35</t>
+          <t>6,92; 13,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,37</t>
+          <t>4,55; 8,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,9</t>
+          <t>10,22; 16,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,88</t>
+          <t>7,49; 12,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,3</t>
+          <t>3,5; 5,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,22</t>
+          <t>15,88; 19,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 14,3</t>
+          <t>11,2; 14,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,63</t>
+          <t>8,75; 11,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,77; 37,71</t>
+          <t>32,75; 37,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,12</t>
+          <t>21,72; 26,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,86</t>
+          <t>5,99; 7,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 26,97</t>
+          <t>23,78; 26,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,11</t>
+          <t>16,45; 19,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P16A97-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,51</t>
+          <t>7,66; 12,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 47,8</t>
+          <t>38,73; 47,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 33,77</t>
+          <t>24,89; 34,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,07</t>
+          <t>16,01; 24,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,56; 66,62</t>
+          <t>57,63; 66,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,17; 56,34</t>
+          <t>44,61; 56,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,04</t>
+          <t>12,46; 17,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,37; 56,63</t>
+          <t>50,09; 56,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,86; 43,62</t>
+          <t>35,91; 43,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,1</t>
+          <t>1,51; 3,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,54</t>
+          <t>8,25; 11,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,9</t>
+          <t>7,77; 10,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,81</t>
+          <t>4,78; 7,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,07</t>
+          <t>19,76; 25,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 22,36</t>
+          <t>16,96; 21,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,85</t>
+          <t>3,19; 4,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 16,93</t>
+          <t>13,55; 16,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 15,23</t>
+          <t>12,24; 15,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,64</t>
+          <t>2,13; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,2</t>
+          <t>5,16; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,48</t>
+          <t>6,54; 13,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 13,36</t>
+          <t>6,05; 13,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,84</t>
+          <t>14,93; 26,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,96</t>
+          <t>7,03; 14,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,29</t>
+          <t>4,43; 8,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 16,77</t>
+          <t>10,12; 16,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,62</t>
+          <t>7,5; 12,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,37</t>
+          <t>3,44; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 19,55</t>
+          <t>15,94; 19,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,39</t>
+          <t>11,3; 14,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,6</t>
+          <t>8,68; 11,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,75; 37,79</t>
+          <t>32,93; 37,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,1</t>
+          <t>21,64; 26,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,63</t>
+          <t>6,07; 7,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 26,78</t>
+          <t>23,99; 26,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,45; 19,13</t>
+          <t>16,59; 19,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
